--- a/01-Quarto/R4DA-Quarto-план_занятия.xlsx
+++ b/01-Quarto/R4DA-Quarto-план_занятия.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apavlyuchenko\Documents\Projects\Otus\OTUS_R4DA\01-Quarto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apawl\Documents\Projects\Otus\R4DA\01-Quarto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA89CB1-3E1E-4E57-9BB5-48CD5DBE28A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73181AE6-9187-4A2C-8F01-E2494083A0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="план занятия" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>Тема занятия</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Результат занятия (материальный артефакт):</t>
   </si>
   <si>
-    <t>Сколько времени понадобится (минуты)</t>
-  </si>
-  <si>
     <t>Что я говорю и делаю</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Этап 1. Организационно-мотивационный:</t>
   </si>
   <si>
-    <t>0:10</t>
-  </si>
-  <si>
     <t>Этап 2. Теоретическо-практический:</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
   </si>
   <si>
     <t>Мой фидбэк после занятия (комментарии, что можно изменить в плане)</t>
-  </si>
-  <si>
-    <t>слайд для будущих презентаций и речь о себе</t>
   </si>
   <si>
     <t>Цель и смысл этапа / что тренируем 
@@ -80,15 +71,6 @@
     <t>0:00</t>
   </si>
   <si>
-    <t>Проверка записи</t>
-  </si>
-  <si>
-    <t>Подключаются</t>
-  </si>
-  <si>
-    <t>Показать, как не забыть включить запись</t>
-  </si>
-  <si>
     <t>0:01</t>
   </si>
   <si>
@@ -98,230 +80,22 @@
     <t>Ставят зеленые галки</t>
   </si>
   <si>
-    <t>Показать, как можно собирать фидбэк от аудитории больше 6 человек, инструмент zoom, проверить звук</t>
-  </si>
-  <si>
     <t>0:02</t>
   </si>
   <si>
-    <t>Правила взаимодействия: трелло-консепкт, шаблоны презентаций, комнаты, модераторы</t>
-  </si>
-  <si>
-    <t>Слушают, открывают доску трелло, открывают папку с шаблонами</t>
-  </si>
-  <si>
-    <t>Ссылка на доску трелло, папка с шаблонами</t>
-  </si>
-  <si>
-    <t>Сконцентрировать на возможности вести конспект, лучше запоминать, демонстрация инструмента</t>
-  </si>
-  <si>
-    <t>0:05</t>
-  </si>
-  <si>
-    <t>Карта курса. Тема. Говорю, что тема новая, тестим. Нужна ли она преподавателю?</t>
-  </si>
-  <si>
-    <t>Слушают, ставят смайл, если тема нужная</t>
-  </si>
-  <si>
-    <t>карта курса</t>
-  </si>
-  <si>
-    <t>сфокусировать, что уже прошли и какую тему добавили, зачем</t>
-  </si>
-  <si>
-    <t>0:08</t>
-  </si>
-  <si>
-    <t>Цель и смысл. а какие у вас ожидания?</t>
-  </si>
-  <si>
     <t>Слушают. пишут ожидания  в чат или говорят голосом</t>
   </si>
   <si>
-    <t>определить ожидания от темы, представить предполагаемый результат и смысл темы</t>
-  </si>
-  <si>
     <t>Маршрут</t>
   </si>
   <si>
     <t>Слушают</t>
   </si>
   <si>
-    <t>сформировать ожидание по структуре занятия и дать представление о нем</t>
-  </si>
-  <si>
-    <t>0:10-0:25</t>
-  </si>
-  <si>
-    <t>Даю задание: 
-1. делимся на комнаты по парам
-2. создаем в шаблоне слайд о себе и речь для самопрезентации - 5 минут
-3. презентуем по очереди свой слайд и рассказываем о себе - 5 минут 
-4. рефлексируем: какое впечатление от своей речи и речи коллеги - 5 минут и собираемся обратно
-Задаю вопрос, понятна ли инструкция, откуда брать шаблоны. Кому все понятно - ставят зеленую галку. 
-Делю всех на комнаты. разделяем с модераторами комнаты, чтобы не приходить в комнату всем.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Слушают, задают вопросы. Расходятся на комнаты. Создают слайд, готовят речь. Презентуют себя по очереди. Рефлексируют - отвечают на вопрос - какое впечатление от своей речи и речи коллеги. Возвращаются в основной сеанс.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Папка с шаблонами, примером
-</t>
-  </si>
-  <si>
-    <t>Создание слайда и речи о себе - драфта для дальнейшей коррекции. Демонстрация P2P-обучения, парной работы по комнатам.</t>
-  </si>
-  <si>
-    <t>0:25-0:27</t>
-  </si>
-  <si>
-    <t>Даю задание:
-Слушаете Леру и следите, что в вашем слайде можно поправить - записываете или запоминаете, мы выделим после ее рассказа специально время, чтобы вы поправили.
-Если задание понятно - поставьте зеленую галку</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открывают слайд, ставят зеленую галку, если понятно </t>
-  </si>
-  <si>
-    <t>Фокусируем внимание на материале и возможности его сразу применять на примере своего слайда</t>
-  </si>
-  <si>
-    <t>0:27-0:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лера рассказывает о презентациях:
-1. один слайд-одна мысль (смена слайдов придает динамику, если долго стоите на слайде - есть ли там, на что смотреть?)
-2. картинки (качественные и нетривиальные - ресурсы)
-3. буллиты (5+/- 2, ключевые слова) 
-4. нет спойлерам (постепенный вывод информации)
-5. акценты на слайде (цветом, выделением, схемой, фигурой, указателями)
-6. шрифт (стиль, размер, типы выделений)
-В каждой категории показать неудачные и удачные слайды - много текста или деталей, полные предложения, расхожие картинки, разный шрифт и т.д.) </t>
-  </si>
-  <si>
-    <t>Слушают и записывают комментарии</t>
-  </si>
-  <si>
-    <t>Ссылки на ресурсы</t>
-  </si>
-  <si>
-    <t>Демонстрация приема с параллельным конспектированием. Сообщение теории для последующего применения</t>
-  </si>
-  <si>
-    <t>0:50-0:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Даю задание:
-1. Расшарить свой экран со слайдом
-2. Откорректировать слайд согласно тому, что было рассказано - 10 минут
-3. Как будет готов слайд - поставить зеленую галку </t>
-  </si>
-  <si>
-    <t>Расшаривают слайд о себе, корректируют. Ставят зеленую галку, когда готовы.</t>
-  </si>
-  <si>
-    <t>Демонстрация возможности шарить экран и смотреть ведущему процесс выполнения задания. Применяют услышанную информацию к реальному примеру</t>
-  </si>
-  <si>
-    <t>0:55-0:56</t>
-  </si>
-  <si>
-    <t>Даю задание:
-Слушаем Олега и записываем, что хотите попробовать для речи в трелло?
-Понятно задание? - ставим зеленую галку.</t>
-  </si>
-  <si>
-    <t>Открывают трелло, ставят зеленую галку</t>
-  </si>
-  <si>
-    <t>Фокусируем внимание на материале и возможности его законспектировать - помочь себе запомнить</t>
-  </si>
-  <si>
-    <t>0:56-1:20</t>
-  </si>
-  <si>
-    <t>Олег рассказывает о речи:
-1. подготовка речевого аппарата (скороговорки)
-2. положение тела (стоя, удобное кресло, осанка, открытые позы и жесты)
-3. стакан воды
-4. проговаривать все, общаться с чатом, улыбаться</t>
-  </si>
-  <si>
-    <t>Пишут заметки в трелло</t>
-  </si>
-  <si>
-    <t>Ссылка на трелло</t>
-  </si>
-  <si>
-    <t>1:20-1:40</t>
-  </si>
-  <si>
-    <t>Даю задание:
-1. Делимся снова на комнаты
-2. Корректируем речь о себе: с улыбкой, открытой позой, стоя, глядя в камеру - 10 минут
-3. Проговариваем самопрезентацию по скорректированному слайду и речи - 10 минут
-5. Анализируем речь и презентацию напарника по чек-листу 
-4. Рефлексия - какое впечатление теперь?-5 минут 
-Если понятна инструкция - зеленая галка
-Модераторы ходят теперь по всем комнатам. Не заходя туда. где модератор есть.</t>
-  </si>
-  <si>
-    <t>Ставят галку. Расходятся на комнаты по парам, корректируют речь, проговаривают, рефлексируют: какое впечатление теперь? Возвращаются в основной сеанс</t>
-  </si>
-  <si>
-    <t>Папка с шаблонами, примером
-Чек-лист для презентации
-Чек-лист для речи</t>
-  </si>
-  <si>
-    <t>Демонстрация задания со взаимопроверкой по чек-листу (с фокусом на том, что надо оценить), тренируем умение создавать слайды и речь с учетом вводных</t>
-  </si>
-  <si>
-    <t>1:40-1:45</t>
-  </si>
-  <si>
-    <t>Рефлексия: что изменилось в восприятии другого и в самоощущениях?</t>
-  </si>
-  <si>
     <t>Отвечают голосом и в чат</t>
   </si>
   <si>
     <t>подводим итоги занятия, закрепляем знания и осознаем полученный опыт</t>
-  </si>
-  <si>
-    <t>Что важного вы для себя поняли про речь и презентацию?</t>
-  </si>
-  <si>
-    <t>1:45-1:50</t>
-  </si>
-  <si>
-    <t>ДЗ: подготовить речь на 3 минуты и 3 слайда по любой идее мини-TED - тренируем речь и слайды на следующем занятии и на демо.</t>
-  </si>
-  <si>
-    <t>Отвечают, понятная ли ДЗ</t>
-  </si>
-  <si>
-    <t>инструкция в преподавательскую и чек-лист</t>
-  </si>
-  <si>
-    <t>тренируем навык подотовки слайдов и речи</t>
-  </si>
-  <si>
-    <t>1:50-2.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Опрос о занятии. Анонс следующего занятия. </t>
-  </si>
-  <si>
-    <t>Заполняют опрос</t>
-  </si>
-  <si>
-    <t>Ссылка на опрос</t>
-  </si>
-  <si>
-    <t>запрашиваем обратную связь у аудитории о занятии</t>
   </si>
   <si>
     <t>Утилита формирования отчётов Quarto</t>
@@ -353,12 +127,154 @@
     <t xml:space="preserve">Участники будут уметь создавать базовые документы в Quarto для ряда популярных форматов (html, docx, pdf, revealjs)
 </t>
   </si>
+  <si>
+    <t>Конспект вебинара с примерами и ссылками</t>
+  </si>
+  <si>
+    <t>Приветствие, включение записи, знакомство</t>
+  </si>
+  <si>
+    <t>Познакомить с содержанием вебинара, сформировать ожидания</t>
+  </si>
+  <si>
+    <t>Маршрут вебинара</t>
+  </si>
+  <si>
+    <t>Тема вебинара. Говорю, что тема новая.</t>
+  </si>
+  <si>
+    <t>Цель и смысл. А какие у вас ожидания?</t>
+  </si>
+  <si>
+    <t>Знакомство, пояснение о новизне темы</t>
+  </si>
+  <si>
+    <t>Определить ожидания от темы, представить предполагаемый результат и смысл темы</t>
+  </si>
+  <si>
+    <t>0:03</t>
+  </si>
+  <si>
+    <t>0:06</t>
+  </si>
+  <si>
+    <t>Накопленный хронометраж (сколько времени вебинара пройдет по окончании этапа)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код примера. Файлы-примеры принципиально создаются заново
+</t>
+  </si>
+  <si>
+    <t>Слушают, задают вопросы. Вдохновляются. Готовятся примерять дальнейшие сведения к своим (будущим) проектам.</t>
+  </si>
+  <si>
+    <t>Курс содержит лекцию как по Rmarkdown, так и по Quarto. Тема Rmarkdown дает навык написания практически любого документа, который можно сверстать и в Quarto. Цель занятия поло Quarto – показать нововведения и более продвинутые возможности. Цель данного этапа – обзор этих нововведений и возможностей.</t>
+  </si>
+  <si>
+    <t>Объясняю:
+1. Что такое Quarto
+2. Зачем он, если есть Rmarkdown
+3. Какие у Quarto возможности и преимущества
+Прошу воспринимать всю последующую информацию, имея в виду какой-нибудь свой проект, существующий или будущий, который можно было бы оформить в Quarto.</t>
+  </si>
+  <si>
+    <t>Проверка работы мультиплекса. Проверка записи</t>
+  </si>
+  <si>
+    <t>Подключаются. Переходят по ссылке на презентацию. Отвечают, работает ли мультиплекс</t>
+  </si>
+  <si>
+    <t>Показываю пару примеров создания документов Quarto  с нуля.</t>
+  </si>
+  <si>
+    <t>Этап 2. Вводно-ознакомительный:</t>
+  </si>
+  <si>
+    <t>Смотрят, слушают, задают вопросы</t>
+  </si>
+  <si>
+    <t>Закрепить сказанное живым примером</t>
+  </si>
+  <si>
+    <t>Пересказываю общий алгоритм работы с Quarto (как такового его не существует, это скорее мнемонический прием для обучения). Более подробно останавливаюсь на доступных форматах: тех, что доступны при создании в RStudio и тех, которые можно задать самостоятельно.</t>
+  </si>
+  <si>
+    <t>Показываю примеры готовых документов из галереи Quarto</t>
+  </si>
+  <si>
+    <t>Слушают, задают вопросы.</t>
+  </si>
+  <si>
+    <t>Ссылка на галерею Quarto должна быть под рукой</t>
+  </si>
+  <si>
+    <t>Создать ментальную структуру, вокруг которой будут закрепляться знания по настройке документов в Quarto</t>
+  </si>
+  <si>
+    <t>Спрашиваю, какой формат больше всего интересует участников, каким они хотят пользоваться и о каком хотят узнать побольше.</t>
+  </si>
+  <si>
+    <t>Рассказывают, какие форматы и опции им интересненн всего и для каких проектов.</t>
+  </si>
+  <si>
+    <t>1. Дать голос участникам
+2. Получить обратную связь
+3. Понять, на чем сделать акцент в дальнейшем вебинаре</t>
+  </si>
+  <si>
+    <t>Рассказываю о настройке разных элементов документов Quarto и одновременно показываю примеры с рендерингом документов.</t>
+  </si>
+  <si>
+    <t>Примеры настроек и элементов</t>
+  </si>
+  <si>
+    <t>1:25</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>0:21</t>
+  </si>
+  <si>
+    <t>0:30</t>
+  </si>
+  <si>
+    <t>0:36</t>
+  </si>
+  <si>
+    <t>0:42</t>
+  </si>
+  <si>
+    <t>1:12</t>
+  </si>
+  <si>
+    <t>Рассказываю, как создаются комплексные публикации (сайты, блоги, книги) в Quarto с акцентом на сайты. Демонстрирую создание сайта.</t>
+  </si>
+  <si>
+    <t>Рассказать, что можно добавить в свой документ и настроить в нем. Показать, как обсуждаемые изменения влияют на внешний вид документа, для закрепления. Вдохновить на дальнейшее изучение темы.</t>
+  </si>
+  <si>
+    <t>Показать примеры для вдохновения</t>
+  </si>
+  <si>
+    <t>Показать, как просто создать в Quarto базовый сайт. Вдохновить на дальнейшее изучение темы</t>
+  </si>
+  <si>
+    <t>1:35</t>
+  </si>
+  <si>
+    <t>Рефлексия. Удалось ли «познакомиться» с Quarto? Будете ли вы его использовать? Какой проект и для кого вы бы создали?</t>
+  </si>
+  <si>
+    <t>Примеры кода, скриншоты</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -419,15 +335,24 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -462,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -576,11 +501,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -599,53 +550,70 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -964,46 +932,46 @@
     <tabColor rgb="FFFFD966"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="19"/>
+      <c r="D1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="66">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="8"/>
@@ -1011,60 +979,60 @@
       <c r="H2" s="8"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="52.8">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="19"/>
+      <c r="F3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="171.6">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="19"/>
+      <c r="F4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="19"/>
+      <c r="D5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="13.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
@@ -1075,511 +1043,437 @@
       <c r="H6" s="9"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="66">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="10" t="s">
-        <v>17</v>
+      <c r="G7" s="31"/>
+      <c r="H7" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="13.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="19"/>
+      <c r="C8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="66">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="3" t="s">
-        <v>21</v>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="52.8" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="26.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="3" t="s">
-        <v>30</v>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="39.6">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="11" t="s">
-        <v>31</v>
+      <c r="C12" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="39.6">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="13.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="C14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="132">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="19"/>
+      <c r="C15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="26.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="3" t="s">
-        <v>47</v>
+      <c r="C16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="13.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="C17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="66">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="3" t="s">
+      <c r="F18" s="27"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="33" t="s">
         <v>56</v>
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="66">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="14" t="s">
-        <v>60</v>
+      <c r="C19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="52.8">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="3" t="s">
-        <v>64</v>
+      <c r="C20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="92.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="20" t="s">
+      <c r="C21" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="3" t="s">
-        <v>56</v>
+      <c r="D21" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="39.6">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="13.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="19"/>
+      <c r="C23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="39.6">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="3" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="13.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="C25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="13.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="13.2">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="13.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="19"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="13.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="13.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="13.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="13.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="19">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>